--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipD\InputData\bldgs\RBFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/bldgs/rbff/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8B058-68B8-7E48-813B-C2C4B857802F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11295"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -150,6 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,19 +431,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -449,42 +454,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -496,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -504,14 +509,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="11" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="6" width="17.33203125" style="5" customWidth="1"/>
+    <col min="7" max="11" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -546,7 +551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -581,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -616,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -651,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -686,7 +691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -721,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -756,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -791,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -826,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -861,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>

--- a/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
+++ b/InputData/bldgs/RBFF/Recipient Buildings Fuel Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/bldgs/rbff/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\template_state\bldgs\RBFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC8B058-68B8-7E48-813B-C2C4B857802F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B018FF-DE0F-4CED-887E-09249D95ED5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9660" yWindow="1080" windowWidth="17205" windowHeight="16065" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -434,19 +434,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="7">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -454,42 +456,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>21</v>
       </c>
@@ -507,16 +509,18 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.33203125" customWidth="1"/>
-    <col min="2" max="6" width="17.33203125" style="5" customWidth="1"/>
-    <col min="7" max="11" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col min="2" max="6" width="17.28515625" style="5" customWidth="1"/>
+    <col min="7" max="11" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
@@ -551,7 +555,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -571,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -586,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -621,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -656,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -691,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -726,7 +730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -746,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="5">
         <v>0</v>
@@ -761,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -796,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -831,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -866,7 +870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
